--- a/Screen Sheets/Data/Screening_Summary.xlsx
+++ b/Screen Sheets/Data/Screening_Summary.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bubba\Ludington Lab Internship\Screen Sheets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D3D999-CF58-475F-9B28-BE3D375E4935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE7674D-6394-42FE-9537-2EE72BE45FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{D1B86428-2579-4225-87BA-753E912280D7}"/>
+    <workbookView xWindow="5292" yWindow="36" windowWidth="21624" windowHeight="12468" xr2:uid="{D1B86428-2579-4225-87BA-753E912280D7}"/>
   </bookViews>
   <sheets>
     <sheet name="ScreeningList" sheetId="4" r:id="rId1"/>
     <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
   <si>
     <t>Carb</t>
   </si>
@@ -298,6 +297,15 @@
   </si>
   <si>
     <t>TetAtAoLM.xlsx</t>
+  </si>
+  <si>
+    <t>CarbAmAsLM.xlsx</t>
+  </si>
+  <si>
+    <t>A.malorum</t>
+  </si>
+  <si>
+    <t>A.sicerae</t>
   </si>
 </sst>
 </file>
@@ -549,8 +557,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5A90B606-F5F1-4422-A247-E470BCEF3DED}" name="Table_ScreeningList3" displayName="Table_ScreeningList3" ref="A1:E27" totalsRowShown="0">
   <autoFilter ref="A1:E27" xr:uid="{5A90B606-F5F1-4422-A247-E470BCEF3DED}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
-    <sortCondition ref="B1:B27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E25">
+    <sortCondition ref="C1:C27"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8939ACE6-F9FE-408B-9237-A2B53A1D4833}" name="Filename" dataDxfId="3"/>
@@ -860,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9437546-EF3F-4AED-9E25-4E58DF8995D7}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,16 +901,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -910,95 +918,95 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>800</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E7">
-        <v>800</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>56</v>
@@ -1012,16 +1020,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -1029,16 +1037,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1046,16 +1054,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -1063,10 +1071,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
@@ -1080,16 +1088,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>10</v>
@@ -1097,16 +1105,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
-      </c>
-      <c r="D14" t="s">
-        <v>38</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -1114,16 +1122,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -1131,10 +1139,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -1148,16 +1156,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
         <v>38</v>
-      </c>
-      <c r="D17" t="s">
-        <v>37</v>
       </c>
       <c r="E17">
         <v>10</v>
@@ -1165,27 +1173,27 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
@@ -1194,15 +1202,15 @@
         <v>38</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
@@ -1211,21 +1219,21 @@
         <v>38</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>800</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
         <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -1233,16 +1241,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -1250,18 +1258,35 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
         <v>10</v>
       </c>
     </row>
@@ -1277,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415DF05F-2186-42FD-9061-E22C0E47DC3D}">
   <dimension ref="B2:AG10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
